--- a/Verification_plan.xlsx
+++ b/Verification_plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Courses\IOT\Project Guidance\Project\ECEN5823_Project_Health_tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5DC0CBFF-C0B6-4C05-BED0-B7066708436A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A72A3B-C96A-401F-A6EF-ADD6DA532FFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1848" yWindow="1848" windowWidth="17280" windowHeight="8964" xr2:uid="{213C099E-A5F6-4FCB-A413-23C4152E8833}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="23">
   <si>
     <t>To be verified</t>
   </si>
@@ -103,6 +103,12 @@
   <si>
     <t>Measure the energy consumption on 
 energy profiler</t>
+  </si>
+  <si>
+    <t>System test</t>
+  </si>
+  <si>
+    <t>Integrate the entire subsystems and test it</t>
   </si>
 </sst>
 </file>
@@ -473,16 +479,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11652C89-7F07-4A2D-9408-B787ABD2B8F9}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32" style="1" customWidth="1"/>
+    <col min="2" max="2" width="36.44140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="19.5546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="8.88671875" style="1"/>
     <col min="5" max="5" width="14.5546875" style="1" customWidth="1"/>
@@ -649,6 +655,26 @@
         <v>7</v>
       </c>
     </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Verification_plan.xlsx
+++ b/Verification_plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Courses\IOT\Project Guidance\Project\ECEN5823_Project_Health_tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A72A3B-C96A-401F-A6EF-ADD6DA532FFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA264D0-FF57-419F-B4E8-B9C35C5783FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1848" yWindow="1848" windowWidth="17280" windowHeight="8964" xr2:uid="{213C099E-A5F6-4FCB-A413-23C4152E8833}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{213C099E-A5F6-4FCB-A413-23C4152E8833}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="29">
   <si>
     <t>To be verified</t>
   </si>
@@ -52,11 +52,6 @@
   </si>
   <si>
     <t>Passed</t>
-  </si>
-  <si>
-    <t>1) Read/write data from I2c registers
-2) X, Y and Z acceleration values
-within the max and min possible readings.</t>
   </si>
   <si>
     <t>N/A</t>
@@ -82,9 +77,6 @@
     <t>LETimer functionality</t>
   </si>
   <si>
-    <t>LETimer fires every 10 second</t>
-  </si>
-  <si>
     <t>Server able to bond/connect with
  client</t>
   </si>
@@ -109,6 +101,34 @@
   </si>
   <si>
     <t>Integrate the entire subsystems and test it</t>
+  </si>
+  <si>
+    <t>Sayali  Mule</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>1) Read/write data from I2c registers
+2) Generate an interrupt when free fall is detected.
+3) Set threshold for free fall detection and free fall duration to generate interrupt when the values cross the threshold</t>
+  </si>
+  <si>
+    <t>Verified I2C read by reading DEVID register
+Verified I2C write by writing  value 0x08 to power measurement register and then reading it
+Yet to verify free fall detection</t>
+  </si>
+  <si>
+    <t>Sayali Mule</t>
+  </si>
+  <si>
+    <t>Got value around 80-100 BPM which falls under the expected range of (40 - 120)</t>
+  </si>
+  <si>
+    <t>LETimer fires every 1 second</t>
+  </si>
+  <si>
+    <t>Verified LETIMER fires periodically using the energy profiler</t>
   </si>
 </sst>
 </file>
@@ -159,12 +179,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -481,8 +502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11652C89-7F07-4A2D-9408-B787ABD2B8F9}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:D9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -490,8 +511,8 @@
     <col min="1" max="1" width="27.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="36.44140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="19.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="1"/>
-    <col min="5" max="5" width="14.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16" style="1" customWidth="1"/>
+    <col min="5" max="5" width="67.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
@@ -517,162 +538,162 @@
     </row>
     <row r="3" spans="1:6" ht="142.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
+      </c>
+      <c r="C3" s="3">
+        <v>44517</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="106.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
+      <c r="C4" s="3">
+        <v>44515</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>7</v>
+        <v>27</v>
+      </c>
+      <c r="C6" s="3">
+        <v>44512</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Verification_plan.xlsx
+++ b/Verification_plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Courses\IOT\Project Guidance\Project\ECEN5823_Project_Health_tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA264D0-FF57-419F-B4E8-B9C35C5783FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7E882D4-19CD-4498-AAA2-3023B607617B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{213C099E-A5F6-4FCB-A413-23C4152E8833}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="35">
   <si>
     <t>To be verified</t>
   </si>
@@ -125,10 +125,28 @@
     <t>Got value around 80-100 BPM which falls under the expected range of (40 - 120)</t>
   </si>
   <si>
-    <t>LETimer fires every 1 second</t>
-  </si>
-  <si>
     <t>Verified LETIMER fires periodically using the energy profiler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LETimer fires every 2ms </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Able to send the values of BPM and free fall to client </t>
+  </si>
+  <si>
+    <t>Able to pair the client with server by using PB0(similar to assignment)</t>
+  </si>
+  <si>
+    <t>Use PB1 to clear previously generated free fall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use PB1 to clear previous free fall </t>
+  </si>
+  <si>
+    <t>Use PB0 to enable/disable Pulse sensor</t>
+  </si>
+  <si>
+    <t>Use of PB0 to enable/disable Pulse sensor</t>
   </si>
 </sst>
 </file>
@@ -500,16 +518,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11652C89-7F07-4A2D-9408-B787ABD2B8F9}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:D6"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="36.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="19.5546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="16" style="1" customWidth="1"/>
     <col min="5" max="5" width="67.6640625" style="1" customWidth="1"/>
@@ -573,7 +591,7 @@
         <v>26</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
@@ -583,17 +601,17 @@
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
+      <c r="C5" s="3">
+        <v>44522</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -601,19 +619,19 @@
         <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" s="3">
-        <v>44512</v>
+        <v>44520</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -623,76 +641,109 @@
       <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>6</v>
+      <c r="C7" s="3">
+        <v>44522</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
       <c r="B8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>6</v>
+        <v>33</v>
+      </c>
+      <c r="C8" s="3">
+        <v>44526</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>6</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="3">
+        <v>44525</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="1" t="s">
+      <c r="C12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>6</v>
       </c>
     </row>

--- a/Verification_plan.xlsx
+++ b/Verification_plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Courses\IOT\Project Guidance\Project\ECEN5823_Project_Health_tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7E882D4-19CD-4498-AAA2-3023B607617B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E0FD0E-AF90-4E44-B318-F04EA607FE16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{213C099E-A5F6-4FCB-A413-23C4152E8833}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
   <si>
     <t>To be verified</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>Passed</t>
-  </si>
-  <si>
-    <t>N/A</t>
   </si>
   <si>
     <t>Pulse sensor I2c functionality</t>
@@ -147,6 +144,15 @@
   </si>
   <si>
     <t>Use of PB0 to enable/disable Pulse sensor</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Able to verify the system in the low power mode(EM3)</t>
+  </si>
+  <si>
+    <t>Able to verify that the entire project is working fine</t>
   </si>
 </sst>
 </file>
@@ -520,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11652C89-7F07-4A2D-9408-B787ABD2B8F9}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -556,195 +562,195 @@
     </row>
     <row r="3" spans="1:6" ht="142.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="3">
         <v>44517</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="106.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="C4" s="3">
         <v>44515</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="C5" s="3">
         <v>44522</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" s="3">
         <v>44520</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="C7" s="3">
         <v>44522</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" s="3">
         <v>44526</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" s="3">
         <v>44525</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>6</v>
+      <c r="C10" s="3">
+        <v>44532</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>6</v>
+      <c r="C11" s="3">
+        <v>44534</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>6</v>
+      <c r="C12" s="3">
+        <v>44535</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
